--- a/Service.Catalog/wwwroot/layout/excel/medic/MedicoListado.xlsx
+++ b/Service.Catalog/wwwroot/layout/excel/medic/MedicoListado.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lapaxsis-00\source\repos\API\Service.Catalog\wwwroot\layout\excel\medic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\ResposAxsis\API\Service.Catalog\wwwroot\layout\excel\medic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE6D54E-440D-4A05-A3EF-7FD318508EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC98044-C604-47E1-BA3F-B0410B534D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Medicos" sheetId="1" r:id="rId1"/>
+    <sheet name="Médicos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Medicos">Medicos!$A$4:$H$5</definedName>
+    <definedName name="Medicos">Médicos!$A$4:$H$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -578,20 +578,20 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.26953125" customWidth="1"/>
+    <col min="2" max="4" width="30.7265625" customWidth="1"/>
+    <col min="5" max="5" width="24.54296875" customWidth="1"/>
+    <col min="6" max="6" width="25.7265625" customWidth="1"/>
+    <col min="7" max="7" width="26.26953125" customWidth="1"/>
+    <col min="8" max="8" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -603,7 +603,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,7 +629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -655,7 +655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D12" s="2"/>
     </row>
   </sheetData>
